--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_4.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F8E497-A20B-4B36-A068-046E91C80D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D553D63-41D1-45FD-9C85-68244F175051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="731">
   <si>
     <t>Name</t>
   </si>
@@ -2213,48 +2213,6 @@
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>oshindhe@gmail.com</t>
-  </si>
-  <si>
-    <t>Omprakash MS shindhe</t>
-  </si>
-  <si>
-    <t>Girish Yadav.N</t>
-  </si>
-  <si>
-    <t>girishyadavcns@gmail.com</t>
-  </si>
-  <si>
-    <t>Sangeetha M Nandhekar</t>
-  </si>
-  <si>
-    <t>sangeethanandhekar@gmail.com</t>
-  </si>
-  <si>
-    <t>vaishnavimanjula010@gmail.com</t>
-  </si>
-  <si>
-    <t>Vaishnavi CS</t>
-  </si>
-  <si>
-    <t>Swati Parashuram Kore</t>
-  </si>
-  <si>
-    <t>koreswati139@gmail.com</t>
-  </si>
-  <si>
-    <t>plikith02@gmail.com</t>
-  </si>
-  <si>
-    <t>Likith p</t>
-  </si>
-  <si>
-    <t>tejasatejasa366@gmail.com</t>
-  </si>
-  <si>
-    <t>TEJAS A</t>
   </si>
 </sst>
 </file>
@@ -2617,9 +2575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C7933C-D490-4B6D-9610-43FE15D58611}">
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="B362" sqref="B362"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -10880,167 +10840,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>732</v>
-      </c>
-      <c r="B360" t="s">
-        <v>731</v>
-      </c>
-      <c r="C360" t="s">
-        <v>730</v>
-      </c>
-      <c r="D360" t="s">
-        <v>730</v>
-      </c>
-      <c r="E360" t="s">
-        <v>730</v>
-      </c>
-      <c r="F360" t="s">
-        <v>9</v>
-      </c>
-      <c r="G360" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>733</v>
-      </c>
-      <c r="B361" t="s">
-        <v>734</v>
-      </c>
-      <c r="C361" t="s">
-        <v>730</v>
-      </c>
-      <c r="D361" t="s">
-        <v>730</v>
-      </c>
-      <c r="E361" t="s">
-        <v>730</v>
-      </c>
-      <c r="F361" t="s">
-        <v>14</v>
-      </c>
-      <c r="G361" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>735</v>
-      </c>
-      <c r="B362" t="s">
-        <v>736</v>
-      </c>
-      <c r="C362" t="s">
-        <v>730</v>
-      </c>
-      <c r="D362" t="s">
-        <v>730</v>
-      </c>
-      <c r="E362" t="s">
-        <v>730</v>
-      </c>
-      <c r="F362" t="s">
-        <v>9</v>
-      </c>
-      <c r="G362" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>738</v>
-      </c>
-      <c r="B363" t="s">
-        <v>737</v>
-      </c>
-      <c r="C363" t="s">
-        <v>730</v>
-      </c>
-      <c r="D363" t="s">
-        <v>730</v>
-      </c>
-      <c r="E363" t="s">
-        <v>730</v>
-      </c>
-      <c r="F363" t="s">
-        <v>9</v>
-      </c>
-      <c r="G363" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>739</v>
-      </c>
-      <c r="B364" t="s">
-        <v>740</v>
-      </c>
-      <c r="C364" t="s">
-        <v>730</v>
-      </c>
-      <c r="D364" t="s">
-        <v>730</v>
-      </c>
-      <c r="E364" t="s">
-        <v>730</v>
-      </c>
-      <c r="F364" t="s">
-        <v>9</v>
-      </c>
-      <c r="G364" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>742</v>
-      </c>
-      <c r="B365" t="s">
-        <v>741</v>
-      </c>
-      <c r="C365" t="s">
-        <v>730</v>
-      </c>
-      <c r="D365" t="s">
-        <v>730</v>
-      </c>
-      <c r="E365" t="s">
-        <v>730</v>
-      </c>
-      <c r="F365" t="s">
-        <v>9</v>
-      </c>
-      <c r="G365" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>744</v>
-      </c>
-      <c r="B366" t="s">
-        <v>743</v>
-      </c>
-      <c r="C366" t="s">
-        <v>730</v>
-      </c>
-      <c r="D366" t="s">
-        <v>730</v>
-      </c>
-      <c r="E366" t="s">
-        <v>730</v>
-      </c>
-      <c r="F366" t="s">
-        <v>13</v>
-      </c>
-      <c r="G366" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
